--- a/html/resources/aoiConditions/train2P1Block7.xlsx
+++ b/html/resources/aoiConditions/train2P1Block7.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/11_tokiko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/11_compass.png</t>
-  </si>
-  <si>
-    <t>pngimages/01_gift.png</t>
+    <t>trainingaudio/02_pitito3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/02_pallet.png</t>
+  </si>
+  <si>
+    <t>pngimages/25_apple.png</t>
   </si>
 </sst>
 </file>
